--- a/mini-game/Assets/Resources/doc/skill.xlsx
+++ b/mini-game/Assets/Resources/doc/skill.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>#skill</t>
   </si>
@@ -53,37 +56,255 @@
   </si>
   <si>
     <t>skill_icon</t>
+  </si>
+  <si>
+    <r>
+      <t>吸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>将四个方向上距离吸吸羊第二格的地形吸到吸吸羊身边</t>
+  </si>
+  <si>
+    <t>转</t>
+  </si>
+  <si>
+    <t>将转转羊四个斜线方向上的地形顺时针转移位置</t>
+  </si>
+  <si>
+    <t>推</t>
+  </si>
+  <si>
+    <t>当推推羊四个方向相邻有魔物时候，可以沿着该方向推动一排(3个)魔物</t>
+  </si>
+  <si>
+    <t>跳</t>
+  </si>
+  <si>
+    <t>跳跳羊与其距离2格的魔物交换位置，并且交换后将魔物向后推动1格</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -91,42 +312,812 @@
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>656590</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5210175" y="876300"/>
+          <a:ext cx="570865" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>618490</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>530225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238750" y="1629410"/>
+          <a:ext cx="504190" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514985</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>734060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238750" y="2200275"/>
+          <a:ext cx="400685" cy="715010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>89535</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>690880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>556895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5213985" y="3204845"/>
+          <a:ext cx="601345" cy="282575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>229235</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>848995</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>678180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4277360" y="871220"/>
+          <a:ext cx="619760" cy="654685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>867410</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>584200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="1581150"/>
+          <a:ext cx="610235" cy="536575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="2200275"/>
+          <a:ext cx="609600" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>857885</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>661670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210050" y="2984500"/>
+          <a:ext cx="695960" cy="607695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -316,23 +1307,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="16.14"/>
+    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="16.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="12.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="12.75" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -341,7 +1338,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" ht="12.75" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -350,14 +1347,14 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" ht="12.75" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -397,7 +1394,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" ht="12.75" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -410,14 +1407,112 @@
       <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" ht="54" customHeight="1" spans="1:7">
+      <c r="A6" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1007</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:7">
+      <c r="A7" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1008</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="59" customHeight="1" spans="1:7">
+      <c r="A8" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1009</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="58" customHeight="1" spans="1:7">
+      <c r="A9" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1010</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/mini-game/Assets/Resources/doc/skill.xlsx
+++ b/mini-game/Assets/Resources/doc/skill.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>#skill</t>
-  </si>
-  <si>
-    <t>#技能</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>技能id</t>
   </si>
@@ -59,6 +53,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>吸</t>
     </r>
     <r>
@@ -98,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -117,13 +117,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -149,66 +149,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,14 +171,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -238,25 +221,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,6 +253,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -278,6 +277,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -285,15 +292,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,187 +314,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,30 +505,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,21 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -589,8 +550,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,158 +608,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -853,13 +851,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>656590</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -872,7 +870,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5210175" y="876300"/>
+          <a:off x="5210175" y="428625"/>
           <a:ext cx="570865" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -886,13 +884,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>95885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>618490</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>530225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -905,7 +903,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5238750" y="1629410"/>
+          <a:off x="5238750" y="1181735"/>
           <a:ext cx="504190" cy="434340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -919,13 +917,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514985</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>734060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -938,7 +936,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5238750" y="2200275"/>
+          <a:off x="5238750" y="1752600"/>
           <a:ext cx="400685" cy="715010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -952,13 +950,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>89535</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>274320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>690880</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>556895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -971,7 +969,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5213985" y="3204845"/>
+          <a:off x="5213985" y="2757170"/>
           <a:ext cx="601345" cy="282575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -985,13 +983,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>229235</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>23495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>848995</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>678180</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1004,7 +1002,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4277360" y="871220"/>
+          <a:off x="4277360" y="423545"/>
           <a:ext cx="619760" cy="654685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1018,13 +1016,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>867410</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>584200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1037,7 +1035,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4305300" y="1581150"/>
+          <a:off x="4305300" y="1133475"/>
           <a:ext cx="610235" cy="536575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1051,13 +1049,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>723900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1070,7 +1068,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257675" y="2200275"/>
+          <a:off x="4257675" y="1752600"/>
           <a:ext cx="609600" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1084,13 +1082,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>857885</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>661670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1103,7 +1101,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4210050" y="2984500"/>
+          <a:off x="4210050" y="2536825"/>
           <a:ext cx="695960" cy="607695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1316,10 +1314,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1329,186 +1327,161 @@
     <col min="6" max="6" width="12.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" spans="1:5">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
-    <row r="2" ht="12.75" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5"/>
     </row>
-    <row r="3" ht="12.75" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+    <row r="3" ht="54" customHeight="1" spans="1:7">
+      <c r="A3" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1007</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+    <row r="4" ht="51" customHeight="1" spans="1:7">
+      <c r="A4" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1008</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
     </row>
-    <row r="5" ht="12.75" spans="1:7">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7"/>
+    <row r="5" ht="59" customHeight="1" spans="1:7">
+      <c r="A5" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1009</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="9"/>
     </row>
-    <row r="6" ht="54" customHeight="1" spans="1:7">
-      <c r="A6" s="8">
-        <v>2001</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1007</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="11"/>
+    <row r="6" ht="58" customHeight="1" spans="1:7">
+      <c r="A6" s="6">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1010</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="9"/>
     </row>
-    <row r="7" ht="51" customHeight="1" spans="1:7">
-      <c r="A7" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1008</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
-    <row r="8" ht="59" customHeight="1" spans="1:7">
-      <c r="A8" s="8">
-        <v>2003</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1009</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="11"/>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
-    <row r="9" ht="58" customHeight="1" spans="1:7">
-      <c r="A9" s="8">
-        <v>2004</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1010</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/mini-game/Assets/Resources/doc/skill.xlsx
+++ b/mini-game/Assets/Resources/doc/skill.xlsx
@@ -52,42 +52,25 @@
     <t>skill_icon</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>attract</t>
   </si>
   <si>
     <t>将四个方向上距离吸吸羊第二格的地形吸到吸吸羊身边</t>
   </si>
   <si>
-    <t>转</t>
+    <t>rotate</t>
   </si>
   <si>
     <t>将转转羊四个斜线方向上的地形顺时针转移位置</t>
   </si>
   <si>
-    <t>推</t>
+    <t>push</t>
   </si>
   <si>
     <t>当推推羊四个方向相邻有魔物时候，可以沿着该方向推动一排(3个)魔物</t>
   </si>
   <si>
-    <t>跳</t>
+    <t>cannon</t>
   </si>
   <si>
     <t>跳跳羊与其距离2格的魔物交换位置，并且交换后将魔物向后推动1格</t>
@@ -156,7 +139,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,135 +281,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -314,25 +297,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,157 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,30 +488,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,8 +509,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,8 +542,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,162 +588,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -870,7 +853,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5210175" y="428625"/>
+          <a:off x="5210175" y="352425"/>
           <a:ext cx="570865" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -903,7 +886,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5238750" y="1181735"/>
+          <a:off x="5238750" y="1105535"/>
           <a:ext cx="504190" cy="434340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -936,7 +919,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5238750" y="1752600"/>
+          <a:off x="5238750" y="1676400"/>
           <a:ext cx="400685" cy="715010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -969,7 +952,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5213985" y="2757170"/>
+          <a:off x="5213985" y="2680970"/>
           <a:ext cx="601345" cy="282575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1002,7 +985,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4277360" y="423545"/>
+          <a:off x="4277360" y="347345"/>
           <a:ext cx="619760" cy="654685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1035,7 +1018,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4305300" y="1133475"/>
+          <a:off x="4305300" y="1057275"/>
           <a:ext cx="610235" cy="536575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1068,7 +1051,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257675" y="1752600"/>
+          <a:off x="4257675" y="1676400"/>
           <a:ext cx="609600" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1101,7 +1084,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4210050" y="2536825"/>
+          <a:off x="4210050" y="2460625"/>
           <a:ext cx="695960" cy="607695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1317,7 +1300,7 @@
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A1:$XFD3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1327,7 +1310,7 @@
     <col min="6" max="6" width="12.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" ht="12.75" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1350,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="12.75" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>

--- a/mini-game/Assets/Resources/doc/skill.xlsx
+++ b/mini-game/Assets/Resources/doc/skill.xlsx
@@ -55,25 +55,25 @@
     <t>attract</t>
   </si>
   <si>
-    <t>将四个方向上距离吸吸羊第二格的地形吸到吸吸羊身边</t>
+    <t>把四个直线方向上的地形往自己牵引</t>
   </si>
   <si>
     <t>rotate</t>
   </si>
   <si>
-    <t>将转转羊四个斜线方向上的地形顺时针转移位置</t>
+    <t>顺时针移动四个斜线方向上的地形</t>
   </si>
   <si>
     <t>push</t>
   </si>
   <si>
-    <t>当推推羊四个方向相邻有魔物时候，可以沿着该方向推动一排(3个)魔物</t>
+    <t>使目标方向的一排魔物向后推动一格</t>
   </si>
   <si>
     <t>cannon</t>
   </si>
   <si>
-    <t>跳跳羊与其距离2格的魔物交换位置，并且交换后将魔物向后推动1格</t>
+    <t>将地形后的魔物向后推动一格</t>
   </si>
 </sst>
 </file>
@@ -81,12 +81,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -125,10 +125,34 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF333333"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -140,36 +164,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -191,9 +185,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,72 +215,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -297,19 +291,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,163 +411,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,26 +485,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,34 +527,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,16 +562,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,16 +600,16 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,119 +618,119 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -760,12 +754,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1300,7 +1288,7 @@
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1398,7 +1386,7 @@
       <c r="C4" s="6">
         <v>1008</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="6"/>
@@ -1415,7 +1403,7 @@
       <c r="C5" s="6">
         <v>1009</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="6"/>
@@ -1432,7 +1420,7 @@
       <c r="C6" s="6">
         <v>1010</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="6"/>
